--- a/assignments-zgv/motors/motors.xlsx
+++ b/assignments-zgv/motors/motors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitopfer\Documents\Учебно-методическая\Курс Research Seminar\multiple regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563BBA4A-8C92-4B1A-B004-3641DF4327F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF5DD56-E3C6-485C-BA65-FEECF0FAFCA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Количество бракованных изделий зависит от размера партии, поскольку режущий инструмент постепенно изнашивается и точность изготовления падает</t>
   </si>
@@ -85,12 +85,39 @@
   <si>
     <t>- Выберите наиболее подходящую модель регрессии</t>
   </si>
+  <si>
+    <t>В домашней работе надо сравнить несколько моделей, в которых используются нелинейные преобразования или добавлены полиномиальные члены. В примерах мы сравнивали модели по стандартной ошибке оценки (sigma). Если вы применяете нелинейное преобразование к зависимой переменной, то меняется масштаб этой переменной, а от него зависит стандартная ошибка оценки.</t>
+  </si>
+  <si>
+    <t>Поэтому правильно сравнивать модели так:</t>
+  </si>
+  <si>
+    <t>1) Сохранить прогноз на обучающем наборе данных в таблицу.</t>
+  </si>
+  <si>
+    <t>2) Преобразовать, если надо, этот прогноз к исходному масштабу, используя обратное преобразование.</t>
+  </si>
+  <si>
+    <t>3) Посчитать показатели ошибки между фактом и прогнозом.</t>
+  </si>
+  <si>
+    <t>Стандартную ошибку можно посчитать по такой формуле: https://studfile.net/preview/7096695/page:2/</t>
+  </si>
+  <si>
+    <t>Или же можно посчитать MAPE.</t>
+  </si>
+  <si>
+    <t>Для удобства сделайте функцию для расчета ошибки, которая принимает два столбца чисел (факт и прогноз) и выдает агрегированный показатель ошибки.</t>
+  </si>
+  <si>
+    <t>Также этот результат можно сопоставить с R^2 моделей. Эта величина не зависит от масштаба Y, но нелинейные преобразования меняют дисперсию Y, которая используется в расчете R^2, поэтому описанное выше сравнение по стандартной ошибке оценки или MAPE тоже надо сделать.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +133,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,16 +189,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,70 +549,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:T15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://studfile.net/preview/7096695/page:2/" xr:uid="{1EB65DD9-8D69-438A-9426-D163A52B1BCB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
